--- a/outputs/KEYWEST3.xlsx
+++ b/outputs/KEYWEST3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: The syllabus is a central document that typically outlines the schedule, assignments, and deadlines for a course. Finding the syllabus is a logical step toward understanding what to do during Week 1 and knowing the deadlines. Additionally, the page explicitly instructs the user to read the syllabus, which aligns with Abi's comprehensive information processing style.</t>
+Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a starting point for understanding the course structure and requirements. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would likely consider the Syllabus an essential step to gather all necessary information about Week 1 and its deadlines.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style, Learning Style
-Why: The page clearly instructs the user to click on "Syllabus" in the left pane to begin the course and read the important information there. The syllabus is explicitly mentioned as the place to start, which aligns with Abi's motivation to gather comprehensive information and follow process-oriented learning. This clear instruction helps Abi feel confident in taking the action.</t>
+Facets: Motivations, Information Processing Style
+Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather necessary information. The page is straightforward and provides clear guidance, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: After clicking the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which includes a detailed weekly schedule. This provides the information Abi needs to figure out what to do during Week 1 and the deadlines. The clear presentation of the weekly schedule aligns with Abi's motivation to find comprehensive information and helps Abi feel confident that they are making progress toward their goal.</t>
+Why: After clicking "Syllabus," Abi lands on a page titled "Course Syllabus," which includes a detailed weekly schedule. This page provides comprehensive information about what is due each week, including Week 1. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she will see that she is making progress toward her goal and has access to all the necessary information for Week 1.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: The page provides a detailed weekly schedule that lists the activities and deadlines for each week, including Week 1. Since Abi is motivated to understand what to do during Week 1 and the deadlines, finding this summary aligns well with their goal. Additionally, the comprehensive information style matches Abi's preference for gathering all necessary details to form a complete understanding of the tasks and deadlines.</t>
+Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines an essential step toward understanding what to do during Week 1 and meeting the deadlines.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: Information Processing Style, Motivations
-Why: The page is well-organized and clearly labeled with a "Course Summary" section that provides the weekly schedule. Abi's information processing style involves gathering comprehensive information, and this page aligns with that preference by presenting all the necessary details in a structured manner. The presence of the schedule directly supports Abi's motivation to find out what to do during Week 1 and the associated deadlines. Scrolling down to read through the "Course Summary" is a logical and intuitive action for Abi to take.</t>
+Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" right below it. Abi, who prefers a comprehensive information processing style, will likely scroll down to read through the detailed schedule to gather all necessary information about Week 1 activities and deadlines. The page layout and content are straightforward, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: After scrolling down, Abi will see a detailed "Syllabus – Weekly schedule" that lists all activities and deadlines, including those for Week 1. This comprehensive information aligns with both Abi's motivation to understand what needs to be done and their preference for gathering complete information. Seeing the schedule will confirm to Abi that they are on the right track and making progress toward their goal of understanding Week 1 activities and deadlines.</t>
+Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she will have all the necessary information to understand what to do during Week 1 and what the deadlines are. The clear and detailed presentation of the schedule will confirm to Abi that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/KEYWEST3.xlsx
+++ b/outputs/KEYWEST3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
+Why: The Syllabus page is explicitly mentioned in the text as a crucial step to begin the course and contains important information. ABI, who prefers comprehensive information processing, would recognize the importance of the syllabus in understanding what to do during Week 1 and the deadlines. This aligns with ABI's motivation to accomplish tasks and gather complete information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information. The page is straightforward and provides clear guidance, making it easy for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly instructs the user to click on "Syllabus" in the left pane to begin the course and read through the syllabus. This aligns with ABI's motivation to accomplish tasks and gather comprehensive information. The clear instruction boosts ABI's confidence (Computer Self-Efficacy) in knowing what to do at this step. The explicit mention of the Syllabus link and its importance makes it straightforward for ABI to take this action.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Syllabus" on the left pane, Abi lands on a page titled "Course Syllabus" with a detailed weekly schedule. This page provides comprehensive information about what is due each week, including readings and projects. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the detailed schedule and deadlines for Week 1 and beyond. The clear layout and detailed information will help Abi feel confident that she is making progress toward her goal.</t>
+Why: After clicking "Syllabus," ABI lands on a page titled "Course Syllabus" with a detailed weekly schedule. This page provides comprehensive information about what is due each week, including Week 1. This aligns with ABI's motivation to find out what to do during Week 1 and the deadlines. The detailed schedule satisfies ABI's need for comprehensive information processing, confirming that ABI is making progress toward the goal and has the necessary information.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines a crucial step toward understanding what to do during Week 1 and meeting the deadlines. The clear layout and detailed information on the Syllabus page will help Abi feel confident that she is making progress toward her goal.</t>
+Why: The page titled "Course Syllabus" includes a detailed "Syllabus – Weekly schedule" section, which lists the activities and deadlines for each week. ABI, who is motivated to find out what to do during Week 1 and the deadlines, would recognize that finding a summary of activities and deadlines is a crucial step toward achieving the overall use case. The comprehensive information provided aligns with ABI's information processing style, which involves gathering complete information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" right below it. Abi, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. The layout is straightforward, and the information is presented in a clear, organized manner, which aligns with Abi's comprehensive information processing style. This will help Abi feel confident in taking this action.</t>
+Why: The page prominently displays the "Course Summary" and "Syllabus – Weekly schedule" sections, which are likely to catch ABI's attention. ABI is motivated to find out what to do during Week 1 and the deadlines, and scrolling down to read the detailed schedule aligns with ABI's comprehensive information processing style. The page is clear and well-organized, making it easy for ABI to know what to do at this step and to take the action of scrolling down to find the necessary information.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This aligns with Abi's motivation to find out what to do during Week 1 and her comprehensive information processing style, as the page provides all the necessary details in a clear and organized manner. Abi will know she is making progress toward her goal and has all the information she needs.</t>
+Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," ABI will see a detailed list of activities and deadlines for each week, including Week 1. This detailed information aligns with ABI's motivation to find out what to do during Week 1 and the deadlines. The comprehensive schedule provides all the necessary information, confirming to ABI that they did the right thing and are making progress toward their goal. The clear and organized presentation of information supports ABI's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
